--- a/biology/Zoologie/Hemidactylus_brookii/Hemidactylus_brookii.xlsx
+++ b/biology/Zoologie/Hemidactylus_brookii/Hemidactylus_brookii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hemidactylus brookii ou Hémidactyle de Brook[1] est une espèce de geckos de la famille des Gekkonidae[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hemidactylus brookii ou Hémidactyle de Brook est une espèce de geckos de la famille des Gekkonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 aux Philippines, en Indonésie, en Malaisie, en Thaïlande, en Birmanie, au Bangladesh, en Inde, au Népal, au Sri Lanka, aux Maldives et au Pakistan ;
 au Cap-Vert, au Sénégal, au Gambie, en Mauritanie, au Mali, en Côte d'Ivoire, au Ghana, au Togo, au Cameroun, en Centrafrique, au Soudan du Sud, au Soudan, en Éthiopie, en Érythrée, au Kenya, en Tanzanie, au Congo-Kinshasa, en Angola, aux Comores, à La Réunion, à Maurice et aux Seychelles ;
 au Mexique, au Honduras, en Colombie, à la Trinité, à Cuba, à Hispaniola et à Porto Rico.</t>
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un gecko insectivore qui a une couleur de base sombre. Le corps de la salamandre est couvert de petites zones noires, gris-sombre et gris plus clair. Sur la queue - relativement fine et longue - ces couleurs s'organisent plutôt en bandes transversales. Il peut atteindre une quinzaine de centimètres, queue comprise.
 Il vit fréquemment à proximité des êtres humains.
@@ -576,7 +592,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les sous-espèces Hemidactylus brookii angulatus et Hemidactylus brookii parvimaculatus ont été élevées au rang d'espèce.
 </t>
@@ -607,9 +625,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de son co-découvreur James Brooke (1803–1868)[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de son co-découvreur James Brooke (1803–1868).
 </t>
         </is>
       </c>
@@ -638,7 +658,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Gray, 1845 : Catalogue of the specimens of lizards in the collection of the British Museum. p. 1-289 (texte intégral).</t>
         </is>
